--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Master Neuro\M2\Intership_NLP\multimodal-argmining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297BB5B3-6644-405F-B4E3-644A87ED59AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0512EA-03DA-4F82-84DE-B8A07B617F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9D48E75-EBE5-402B-80E8-7E5851914C24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -47,9 +47,6 @@
     <t>F1-Score</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>Deberta + RestNet (Freeze)</t>
   </si>
   <si>
@@ -63,6 +60,93 @@
   </si>
   <si>
     <t>Deberta + RestNet (Unfreeze: layer 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: concat       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: mean         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: avg_pool     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: weighted_sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: gated        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: proj_concat  </t>
+  </si>
+  <si>
+    <t>Multimodal Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t>Deberta + Synonym</t>
+  </si>
+  <si>
+    <t>Data Augmented</t>
+  </si>
+  <si>
+    <t>Future Strategies:</t>
+  </si>
+  <si>
+    <t>2. Extract Text (OCR) + Deberta + Vision Model</t>
+  </si>
+  <si>
+    <t>3. Image as Context (Late or Hybrid Fusion)</t>
+  </si>
+  <si>
+    <t>4. Textual Augmentation more powerful (?)</t>
+  </si>
+  <si>
+    <t>1.Test new Vision Model (Ex. Clip, Blip)</t>
+  </si>
+  <si>
+    <t>Idea:</t>
+  </si>
+  <si>
+    <t>Text + Visual Explanation</t>
+  </si>
+  <si>
+    <t>Input = tweet + "[SEP] Image Description: " + Caption</t>
+  </si>
+  <si>
+    <t>1. Tweet</t>
+  </si>
+  <si>
+    <t>2. Caption of the Image generated by BLIP/CLIP.</t>
+  </si>
+  <si>
+    <t>architecture:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 best performing model: </t>
+  </si>
+  <si>
+    <t>Deberta + CLIP + Study, early next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much the performance improved? </t>
+  </si>
+  <si>
+    <t>Deberta + RestNet + Study, early next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimodal </t>
+  </si>
+  <si>
+    <t>Deberta + CLIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: gated      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion: proj_concat       </t>
   </si>
 </sst>
 </file>
@@ -106,9 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,8 +233,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929A5372-544B-4421-85DD-6AFA7C4D5600}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{929A5372-544B-4421-85DD-6AFA7C4D5600}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929A5372-544B-4421-85DD-6AFA7C4D5600}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortCondition descending="1" ref="C4:C11"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C2A06DE9-8AE0-4EFD-82B5-E60DBA6CFFC7}" name="Model"/>
     <tableColumn id="2" xr3:uid="{B3B16405-5C31-4121-A482-37CF351B4069}" name="Description"/>
@@ -477,20 +564,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D254AA-1E2E-4A97-8233-872846793E17}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,56 +589,255 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>0.83850000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1">
-        <v>0.83460000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.8377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.83524904214559303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.81479999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>0.83479999999999999</v>
       </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.83460000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8327</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.8327</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.8014</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -560,8 +847,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Master Neuro\M2\Intership_NLP\multimodal-argmining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0512EA-03DA-4F82-84DE-B8A07B617F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328CDBB-21CE-4F83-B626-F73900160970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9D48E75-EBE5-402B-80E8-7E5851914C24}"/>
   </bookViews>
@@ -234,8 +234,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929A5372-544B-4421-85DD-6AFA7C4D5600}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition descending="1" ref="C4:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
+    <sortCondition descending="1" ref="C5:C15"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C2A06DE9-8AE0-4EFD-82B5-E60DBA6CFFC7}" name="Model"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A13:D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,16 +597,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
-        <v>0.83850000000000002</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -620,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>0.8377</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>0.83524904214559303</v>
+        <v>0.8377</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -648,13 +648,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>0.83479999999999999</v>
+        <v>0.83524904214559303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -665,10 +668,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.83460000000000001</v>
+        <v>0.83479999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -676,13 +679,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>0.8327</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+        <v>0.83460000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -696,7 +696,7 @@
         <v>0.8327</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -707,10 +707,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>0.81479999999999997</v>
+        <v>0.8327</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -718,16 +721,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>0.81200000000000006</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -738,13 +741,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.80430000000000001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
+        <v>0.81479999999999997</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -758,10 +758,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>0.8014</v>
+        <v>0.81289999999999996</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -769,16 +769,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.84289999999999998</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>25</v>
@@ -786,16 +786,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>0.81920000000000004</v>
+        <v>0.80430000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>25</v>
@@ -809,10 +809,10 @@
         <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>0.81289999999999996</v>
+        <v>0.8014</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">

--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Master Neuro\M2\Intership_NLP\multimodal-argmining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328CDBB-21CE-4F83-B626-F73900160970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC123394-C20A-4684-87AE-B4E67FA34BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9D48E75-EBE5-402B-80E8-7E5851914C24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">Fusion: proj_concat       </t>
+  </si>
+  <si>
+    <t>Deberta + BLIP</t>
+  </si>
+  <si>
+    <t>Fusion: weighted_mean</t>
+  </si>
+  <si>
+    <t>Deberta + ALIGN</t>
   </si>
 </sst>
 </file>
@@ -233,9 +242,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929A5372-544B-4421-85DD-6AFA7C4D5600}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
-    <sortCondition descending="1" ref="C5:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929A5372-544B-4421-85DD-6AFA7C4D5600}" name="Table1" displayName="Table1" ref="A1:D25" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+    <sortCondition descending="1" ref="C2:C25"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C2A06DE9-8AE0-4EFD-82B5-E60DBA6CFFC7}" name="Model"/>
@@ -564,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D254AA-1E2E-4A97-8233-872846793E17}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -574,7 +583,7 @@
   <cols>
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,13 +609,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>0.84289999999999998</v>
+        <v>0.85156200000000004</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -614,16 +623,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
-        <v>0.83850000000000002</v>
+        <v>0.85058</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -631,13 +640,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>0.8377</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -648,16 +657,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>0.83524904214559303</v>
+        <v>0.84</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -665,13 +674,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
-        <v>0.83479999999999999</v>
+        <v>0.83921999999999997</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -679,10 +691,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>0.83460000000000001</v>
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -693,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>0.8327</v>
+        <v>0.8377</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -704,16 +719,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
-        <v>0.8327</v>
+        <v>0.83720899999999998</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -721,16 +736,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.81920000000000004</v>
+        <v>0.83524904214559303</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -741,10 +756,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.81479999999999997</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -752,16 +767,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>0.81289999999999996</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
+        <v>0.83460000000000001</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -769,16 +781,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>0.81200000000000006</v>
+        <v>0.83397699999999997</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>25</v>
@@ -792,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>0.80430000000000001</v>
+        <v>0.8327</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>25</v>
@@ -803,41 +815,170 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.8014</v>
+        <v>0.8327</v>
       </c>
       <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.83267999999999998</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.83206100000000005</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
       <c r="G17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.82396999999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.81954899999999997</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
       <c r="G19" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.81479999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.8014</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C29:C1048576 C1:C25">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
